--- a/reporting_tool/trading_service/output/ThanhToanBuTru/BaoCaoThang/10.2021/BaoCao14.xlsx
+++ b/reporting_tool/trading_service/output/ThanhToanBuTru/BaoCaoThang/10.2021/BaoCao14.xlsx
@@ -19,7 +19,7 @@
     <t>DANH SÁCH CUỘC GỌI ĐẾN KHÁCH HÀNG_THÁNG 07/2021 (01/07/2021- 31/07/2021)</t>
   </si>
   <si>
-    <t>LIST OF PHONE CALLS TO CUSTOMERS__ July of 2021  (01/07/2021- 31/07/2021)</t>
+    <t>LIST OF PHONE CALLS TO CUSTOMERS__July of 2021  (01/07/2021- 31/07/2021)</t>
   </si>
   <si>
     <t>Địa điểm: phòng TTBT- HỘI SỞ</t>
